--- a/6/1/1/3/7/Posiciones 2007 a 2021 - Trimestral.xlsx
+++ b/6/1/1/3/7/Posiciones 2007 a 2021 - Trimestral.xlsx
@@ -3888,16 +3888,16 @@
         <v>117</v>
       </c>
       <c r="M59">
-        <v>1377</v>
+        <v>1402</v>
       </c>
       <c r="N59">
         <v>800</v>
       </c>
       <c r="O59">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="P59">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="Q59">
         <v>155</v>

--- a/6/1/1/3/7/Posiciones 2007 a 2021 - Trimestral.xlsx
+++ b/6/1/1/3/7/Posiciones 2007 a 2021 - Trimestral.xlsx
@@ -3855,13 +3855,13 @@
         <v>74</v>
       </c>
       <c r="B59">
-        <v>-827</v>
+        <v>-816</v>
       </c>
       <c r="C59">
-        <v>-806</v>
+        <v>-796</v>
       </c>
       <c r="D59">
-        <v>1276</v>
+        <v>1287</v>
       </c>
       <c r="E59">
         <v>2083</v>
@@ -3876,10 +3876,10 @@
         <v>28</v>
       </c>
       <c r="I59">
-        <v>3395</v>
+        <v>3406</v>
       </c>
       <c r="J59">
-        <v>3359</v>
+        <v>3370</v>
       </c>
       <c r="K59">
         <v>37</v>
@@ -3888,16 +3888,16 @@
         <v>117</v>
       </c>
       <c r="M59">
-        <v>1402</v>
+        <v>1410</v>
       </c>
       <c r="N59">
-        <v>800</v>
+        <v>792</v>
       </c>
       <c r="O59">
-        <v>582</v>
+        <v>599</v>
       </c>
       <c r="P59">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="Q59">
         <v>155</v>

--- a/6/1/1/3/7/Posiciones 2007 a 2021 - Trimestral.xlsx
+++ b/6/1/1/3/7/Posiciones 2007 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="76">
   <si>
     <t>Serie</t>
   </si>
@@ -239,6 +239,9 @@
   </si>
   <si>
     <t>01-04-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -596,7 +599,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R59"/>
+  <dimension ref="A1:R60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3894,16 +3897,72 @@
         <v>792</v>
       </c>
       <c r="O59">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="P59">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="Q59">
         <v>155</v>
       </c>
       <c r="R59">
         <v>36</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18">
+      <c r="A60" t="s">
+        <v>75</v>
+      </c>
+      <c r="B60">
+        <v>-1098</v>
+      </c>
+      <c r="C60">
+        <v>-1063</v>
+      </c>
+      <c r="D60">
+        <v>1046</v>
+      </c>
+      <c r="E60">
+        <v>2109</v>
+      </c>
+      <c r="F60">
+        <v>-35</v>
+      </c>
+      <c r="G60">
+        <v>8</v>
+      </c>
+      <c r="H60">
+        <v>43</v>
+      </c>
+      <c r="I60">
+        <v>3206</v>
+      </c>
+      <c r="J60">
+        <v>3155</v>
+      </c>
+      <c r="K60">
+        <v>16</v>
+      </c>
+      <c r="L60">
+        <v>40</v>
+      </c>
+      <c r="M60">
+        <v>1250</v>
+      </c>
+      <c r="N60">
+        <v>1044</v>
+      </c>
+      <c r="O60">
+        <v>416</v>
+      </c>
+      <c r="P60">
+        <v>254</v>
+      </c>
+      <c r="Q60">
+        <v>136</v>
+      </c>
+      <c r="R60">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
